--- a/data/trans_orig/P43-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P43-Dificultad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>364009</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>333551</v>
+        <v>333499</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>395306</v>
+        <v>393639</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3954514541244106</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3623622079221994</v>
+        <v>0.3623060422957348</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4294519159686176</v>
+        <v>0.4276410380930282</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>556481</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>525184</v>
+        <v>526851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>586939</v>
+        <v>586991</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6045485458755894</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5705480840313821</v>
+        <v>0.5723589619069717</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6376377920778006</v>
+        <v>0.637693957704265</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>385922</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>352968</v>
+        <v>355702</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>416975</v>
+        <v>420267</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3668008961416316</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3354796211958591</v>
+        <v>0.3380777438423503</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3963149844847685</v>
+        <v>0.3994439195270114</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>666208</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>635155</v>
+        <v>631863</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>699162</v>
+        <v>696428</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6331991038583684</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6036850155152316</v>
+        <v>0.6005560804729887</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6645203788041409</v>
+        <v>0.6619222561576499</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>358175</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>330187</v>
+        <v>328662</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>389198</v>
+        <v>392191</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3634370157880926</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3350379113390337</v>
+        <v>0.3334909475848606</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3949162837567539</v>
+        <v>0.3979530907996238</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>627346</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>596323</v>
+        <v>593330</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>655334</v>
+        <v>656859</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6365629842119074</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6050837162432461</v>
+        <v>0.6020469092003761</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.664962088660966</v>
+        <v>0.6665090524151392</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>139223</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>121268</v>
+        <v>121689</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>157067</v>
+        <v>157159</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4115455496247361</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3584707118611694</v>
+        <v>0.3597150171154461</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4642931766582062</v>
+        <v>0.4645655232619377</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>199069</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>181225</v>
+        <v>181133</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>217024</v>
+        <v>216603</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.588454450375264</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5357068233417938</v>
+        <v>0.5354344767380623</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6415292881388307</v>
+        <v>0.6402849828845539</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>1247329</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1194823</v>
+        <v>1191643</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1303205</v>
+        <v>1302825</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3783873960927326</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.362459275146783</v>
+        <v>0.3614945482819013</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3953378189765623</v>
+        <v>0.3952227235503525</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>2049104</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1993228</v>
+        <v>1993608</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2101610</v>
+        <v>2104790</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6216126039072674</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6046621810234377</v>
+        <v>0.6047772764496475</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.637540724853217</v>
+        <v>0.6385054517180987</v>
       </c>
     </row>
     <row r="18">
@@ -1197,19 +1197,19 @@
         <v>509680</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>476708</v>
+        <v>473276</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>546343</v>
+        <v>541604</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4581737459690755</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4285343701743999</v>
+        <v>0.4254490741280478</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4911317199065073</v>
+        <v>0.4868716956484395</v>
       </c>
     </row>
     <row r="5">
@@ -1226,19 +1226,19 @@
         <v>602736</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>566073</v>
+        <v>570812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>635708</v>
+        <v>639140</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5418262540309245</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5088682800934927</v>
+        <v>0.5131283043515604</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5714656298255999</v>
+        <v>0.5745509258719521</v>
       </c>
     </row>
     <row r="6">
@@ -1288,19 +1288,19 @@
         <v>508151</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>475217</v>
+        <v>474983</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>544159</v>
+        <v>543241</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4671020183338774</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.436828306014796</v>
+        <v>0.4366133142844876</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5002009546971649</v>
+        <v>0.499357446231601</v>
       </c>
     </row>
     <row r="8">
@@ -1317,19 +1317,19 @@
         <v>579730</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>543722</v>
+        <v>544640</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>612664</v>
+        <v>612898</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5328979816661226</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4997990453028354</v>
+        <v>0.5006425537683989</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5631716939852039</v>
+        <v>0.5633866857155123</v>
       </c>
     </row>
     <row r="9">
@@ -1379,19 +1379,19 @@
         <v>417364</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>389152</v>
+        <v>384566</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>451452</v>
+        <v>445968</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.478678615190802</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4463213669154828</v>
+        <v>0.4410625304581433</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5177744397788772</v>
+        <v>0.511484944673527</v>
       </c>
     </row>
     <row r="11">
@@ -1408,19 +1408,19 @@
         <v>454545</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>420457</v>
+        <v>425941</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>482757</v>
+        <v>487343</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.521321384809198</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4822255602211228</v>
+        <v>0.4885150553264729</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5536786330845171</v>
+        <v>0.5589374695418565</v>
       </c>
     </row>
     <row r="12">
@@ -1470,19 +1470,19 @@
         <v>221347</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>199103</v>
+        <v>196218</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>241820</v>
+        <v>241664</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4932367430398306</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4436683850542779</v>
+        <v>0.4372393981714448</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5388575566256654</v>
+        <v>0.5385082271233727</v>
       </c>
     </row>
     <row r="14">
@@ -1499,19 +1499,19 @@
         <v>227418</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>206945</v>
+        <v>207101</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>249662</v>
+        <v>252547</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5067632569601694</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4611424433743345</v>
+        <v>0.4614917728766272</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.556331614945722</v>
+        <v>0.5627606018285551</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>1656543</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1593610</v>
+        <v>1597151</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1715661</v>
+        <v>1723877</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4704789691978806</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4526051564394228</v>
+        <v>0.4536110498736107</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4872694207652556</v>
+        <v>0.4896028359895218</v>
       </c>
     </row>
     <row r="17">
@@ -1590,19 +1590,19 @@
         <v>1864428</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1805310</v>
+        <v>1797094</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1927361</v>
+        <v>1923820</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5295210308021194</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5127305792347443</v>
+        <v>0.5103971640104781</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.547394843560577</v>
+        <v>0.5463889501263892</v>
       </c>
     </row>
     <row r="18">
@@ -1770,19 +1770,19 @@
         <v>601086</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>567215</v>
+        <v>566211</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>639584</v>
+        <v>637089</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4787781937445142</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.451799412812382</v>
+        <v>0.4509993598671295</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5094427878139203</v>
+        <v>0.5074556801437103</v>
       </c>
     </row>
     <row r="5">
@@ -1799,19 +1799,19 @@
         <v>654372</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>615874</v>
+        <v>618369</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>688243</v>
+        <v>689247</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5212218062554858</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4905572121860796</v>
+        <v>0.4925443198562896</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5482005871876179</v>
+        <v>0.5490006401328705</v>
       </c>
     </row>
     <row r="6">
@@ -1861,19 +1861,19 @@
         <v>516707</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>483488</v>
+        <v>482911</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>548081</v>
+        <v>548147</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.516549125243899</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4833406907359913</v>
+        <v>0.4827638012733768</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5479140981121444</v>
+        <v>0.5479800392428967</v>
       </c>
     </row>
     <row r="8">
@@ -1890,19 +1890,19 @@
         <v>483598</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>452224</v>
+        <v>452158</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>516817</v>
+        <v>517394</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.483450874756101</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4520859018878556</v>
+        <v>0.4520199607571038</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5166593092640087</v>
+        <v>0.5172361987266233</v>
       </c>
     </row>
     <row r="9">
@@ -1952,19 +1952,19 @@
         <v>391076</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>362414</v>
+        <v>361803</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>418472</v>
+        <v>419020</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5121490321793726</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.474612574226184</v>
+        <v>0.4738123549024138</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5480263606444801</v>
+        <v>0.5487440758691063</v>
       </c>
     </row>
     <row r="11">
@@ -1981,19 +1981,19 @@
         <v>372523</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>345127</v>
+        <v>344579</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>401185</v>
+        <v>401796</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4878509678206274</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.45197363935552</v>
+        <v>0.4512559241308938</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5253874257738161</v>
+        <v>0.5261876450975865</v>
       </c>
     </row>
     <row r="12">
@@ -2043,19 +2043,19 @@
         <v>238087</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>218462</v>
+        <v>217183</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>260631</v>
+        <v>261085</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4933627741448192</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4526964298836814</v>
+        <v>0.4500459802462531</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5400804387170527</v>
+        <v>0.5410212305976311</v>
       </c>
     </row>
     <row r="14">
@@ -2072,19 +2072,19 @@
         <v>244492</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>221948</v>
+        <v>221494</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>264117</v>
+        <v>265396</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5066372258551808</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4599195612829473</v>
+        <v>0.458978769402369</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5473035701163185</v>
+        <v>0.5499540197537469</v>
       </c>
     </row>
     <row r="15">
@@ -2134,19 +2134,19 @@
         <v>1746956</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1685650</v>
+        <v>1689074</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1805333</v>
+        <v>1806388</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4988535186625951</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4813472073486503</v>
+        <v>0.4823250436210753</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5155234628243764</v>
+        <v>0.515824696229458</v>
       </c>
     </row>
     <row r="17">
@@ -2163,19 +2163,19 @@
         <v>1754985</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1696608</v>
+        <v>1695553</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1816291</v>
+        <v>1812867</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5011464813374048</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4844765371756236</v>
+        <v>0.4841753037705421</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5186527926513499</v>
+        <v>0.5176749563789248</v>
       </c>
     </row>
     <row r="18">
@@ -2343,19 +2343,19 @@
         <v>237944</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>217412</v>
+        <v>216726</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>259453</v>
+        <v>257968</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4603839725958594</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4206584618091419</v>
+        <v>0.4193297550141331</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5020007415191994</v>
+        <v>0.4991266081247826</v>
       </c>
     </row>
     <row r="5">
@@ -2372,19 +2372,19 @@
         <v>278894</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>257385</v>
+        <v>258870</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>299426</v>
+        <v>300112</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5396160274041406</v>
+        <v>0.5396160274041405</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4979992584808006</v>
+        <v>0.5008733918752173</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.579341538190858</v>
+        <v>0.5806702449858669</v>
       </c>
     </row>
     <row r="6">
@@ -2434,19 +2434,19 @@
         <v>407772</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>383513</v>
+        <v>382204</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>431628</v>
+        <v>433144</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4820953273089255</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4534148473778454</v>
+        <v>0.4518672080206708</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5102994344881702</v>
+        <v>0.5120921314362648</v>
       </c>
     </row>
     <row r="8">
@@ -2463,19 +2463,19 @@
         <v>438060</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>414204</v>
+        <v>412688</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>462319</v>
+        <v>463628</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5179046726910744</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4897005655118296</v>
+        <v>0.4879078685637355</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5465851526221545</v>
+        <v>0.5481327919793295</v>
       </c>
     </row>
     <row r="9">
@@ -2525,19 +2525,19 @@
         <v>385583</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>361294</v>
+        <v>361446</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>409774</v>
+        <v>409466</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5063075466182978</v>
+        <v>0.5063075466182977</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4744149303491716</v>
+        <v>0.4746143217570843</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5380728783649956</v>
+        <v>0.5376690138916536</v>
       </c>
     </row>
     <row r="11">
@@ -2554,19 +2554,19 @@
         <v>375975</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>351784</v>
+        <v>352092</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>400264</v>
+        <v>400112</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4936924533817024</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4619271216350045</v>
+        <v>0.4623309861083462</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5255850696508284</v>
+        <v>0.5253856782429158</v>
       </c>
     </row>
     <row r="12">
@@ -2616,19 +2616,19 @@
         <v>420098</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>393253</v>
+        <v>392569</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>443380</v>
+        <v>443233</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6452239525914486</v>
+        <v>0.6452239525914487</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6039930153319381</v>
+        <v>0.6029416832069148</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6809815051265227</v>
+        <v>0.6807566160630271</v>
       </c>
     </row>
     <row r="14">
@@ -2645,19 +2645,19 @@
         <v>230991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>207709</v>
+        <v>207856</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>257836</v>
+        <v>258520</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3547760474085515</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3190184948734774</v>
+        <v>0.319243383936973</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.396006984668062</v>
+        <v>0.3970583167930853</v>
       </c>
     </row>
     <row r="15">
@@ -2707,19 +2707,19 @@
         <v>1451396</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1398463</v>
+        <v>1404223</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1500940</v>
+        <v>1499407</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5229659693039277</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5038929878352113</v>
+        <v>0.5059685296011165</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5408173213480109</v>
+        <v>0.540265083450837</v>
       </c>
     </row>
     <row r="17">
@@ -2736,19 +2736,19 @@
         <v>1323921</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1274377</v>
+        <v>1275910</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1376854</v>
+        <v>1371094</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4770340306960722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4591826786519892</v>
+        <v>0.4597349165491636</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4961070121647889</v>
+        <v>0.4940314703988835</v>
       </c>
     </row>
     <row r="18">
